--- a/中間報告/data/pressure_300.xlsx
+++ b/中間報告/data/pressure_300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\suction_FromNov\velocity comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Desktop\suction\中間報告\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24272892-D932-4544-B566-3BCD1073C12D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0244842-B18B-4FAD-9FC8-FD9371C88F8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="10815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pressure_300" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5370,15 +5370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5445,16 +5445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5780,11 +5780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U7" sqref="T7:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
